--- a/biology/Botanique/Caroline_de_Monaco_(rose)/Caroline_de_Monaco_(rose).xlsx
+++ b/biology/Botanique/Caroline_de_Monaco_(rose)/Caroline_de_Monaco_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Caroline de Monaco' est un cultivar de rosier hybride de thé à la floraison blanc crème[1] obtenu par Meilland en 1988. Il doit son nom à la princesse Caroline de Monaco, née en 1957.
+'Caroline de Monaco' est un cultivar de rosier hybride de thé à la floraison blanc crème obtenu par Meilland en 1988. Il doit son nom à la princesse Caroline de Monaco, née en 1957.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier au feuillage dense et sain, vert foncé et semi-brillant, donne des roses solitaires turbinées (26-40 pétales pour un total de 45)[2] ou regroupées par groupe de trois, plutôt grandes (9 cm de diamètre)[3], qui fleurissent de mi-mai à début novembre. Elles sont légèrement parfumées et d'une élégante couleur blanc crème. Le buisson s'élève de 80 cm à 90 cm[1], parfois plus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier au feuillage dense et sain, vert foncé et semi-brillant, donne des roses solitaires turbinées (26-40 pétales pour un total de 45) ou regroupées par groupe de trois, plutôt grandes (9 cm de diamètre), qui fleurissent de mi-mai à début novembre. Elles sont légèrement parfumées et d'une élégante couleur blanc crème. Le buisson s'élève de 80 cm à 90 cm, parfois plus.
 Il nécessite une exposition ensoleillée. Sa zone de rusticité est de 6b à 9b. Il a besoin d'être taillé à l'abord du printemps, en plus de la coupe d'hiver.
-En plus d'illuminer les jardins, 'Caroline de Monaco' fait d'excellentes fleurs à couper[2]. Il est issu d'un croisement 'Chicago Peace (Johnston, 1960) x 'Parador' (Paolino pour Meilland, 1976)[4].
+En plus d'illuminer les jardins, 'Caroline de Monaco' fait d'excellentes fleurs à couper. Il est issu d'un croisement 'Chicago Peace (Johnston, 1960) x 'Parador' (Paolino pour Meilland, 1976).
 </t>
         </is>
       </c>
